--- a/data/trans_bre/P1803_2016_2023-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P1803_2016_2023-Provincia-trans_bre.xlsx
@@ -598,7 +598,7 @@
         <v>0.5110948185784121</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>0.4579854253057335</v>
+        <v>0.4579854253057334</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.159737747881319</v>
+        <v>-0.6646584777441165</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8682732502203117</v>
+        <v>1.087085588859271</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.1332660376277233</v>
+        <v>-0.1337660696257532</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.05652919044106442</v>
+        <v>0.05358152415182097</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.700945326810606</v>
+        <v>8.948067230019943</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.23794451680687</v>
+        <v>12.25379189663988</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1.561088005540198</v>
+        <v>1.573624306500503</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.100116344770221</v>
+        <v>1.119565481567153</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-1.447890959100167</v>
+        <v>-1.395674190336858</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-1.342176186451903</v>
+        <v>-0.8974368248454508</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.514729059252817</v>
+        <v>-0.4973520997185722</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1884039294365322</v>
+        <v>-0.1396069119676747</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.6598109388208</v>
+        <v>2.540354110588612</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.074263519808268</v>
+        <v>5.865964558638483</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.115009918980847</v>
+        <v>2.047031941300497</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.658387963040667</v>
+        <v>1.442068750016938</v>
       </c>
     </row>
     <row r="10">
@@ -720,13 +720,13 @@
         <v>0.4573183721597183</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>1.583719829183451</v>
+        <v>1.583719829183446</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0.277053420024414</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>0.1528366997535158</v>
+        <v>0.1528366997535152</v>
       </c>
     </row>
     <row r="11">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.849935171980607</v>
+        <v>-1.756446508896083</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.853417918473064</v>
+        <v>-2.972720597179086</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.6931125352112365</v>
+        <v>-0.7014489771006124</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.210676918128139</v>
+        <v>-0.233086433318649</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.578779621421498</v>
+        <v>2.593743734657262</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.733482597146462</v>
+        <v>6.23719834476804</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>3.602861995814156</v>
+        <v>3.921735579920075</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.7272484407742059</v>
+        <v>0.836432657249088</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-0.7628096209939456</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.634343468028099</v>
+        <v>1.634343468028101</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1000627798937963</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.1680545447580012</v>
+        <v>0.1680545447580015</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.49124018112912</v>
+        <v>-4.6643007604109</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-3.716981787861666</v>
+        <v>-3.356697083348791</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.4648645442337029</v>
+        <v>-0.4818712663913756</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2995913895817116</v>
+        <v>-0.2827038839550626</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.342810750885218</v>
+        <v>3.078514672750254</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.740785581392825</v>
+        <v>6.104535170443344</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6143307352641421</v>
+        <v>0.5617868081390966</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.7571963190223341</v>
+        <v>0.8427531907129031</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>1.6672350030074</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>-0.8401648865298227</v>
+        <v>-0.8401648865298234</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.7766662248145747</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>-0.2261472055710735</v>
+        <v>-0.2261472055710737</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.30405233155301</v>
+        <v>-1.340172776769306</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.526720827660298</v>
+        <v>-4.324633130235735</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.5985020472358661</v>
+        <v>-0.5165098610356812</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.7293772218835145</v>
+        <v>-0.705777104502368</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.155451396733276</v>
+        <v>5.013741275585388</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.675702058385718</v>
+        <v>1.712994175620072</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5.401139209795497</v>
+        <v>5.516697000171372</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>1.029129089070453</v>
+        <v>1.074158538952924</v>
       </c>
     </row>
     <row r="19">
@@ -912,13 +912,13 @@
         <v>-3.145651824844531</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>5.238431514176389</v>
+        <v>5.23843151417638</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>-0.4156806527031059</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.6276458110577958</v>
+        <v>0.6276458110577946</v>
       </c>
     </row>
     <row r="20">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-7.822941477562032</v>
+        <v>-7.769138246501179</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7694293969466258</v>
+        <v>0.7430574101345041</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7356085931086648</v>
+        <v>-0.7391474995798981</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.05905951117826942</v>
+        <v>0.05973692568988306</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6735367549524158</v>
+        <v>0.7467402423273728</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>9.260321633526711</v>
+        <v>9.717256060360057</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.1661689042103554</v>
+        <v>0.2101810410725347</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.436247494570698</v>
+        <v>1.467805293130443</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>0.4840103779938543</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>1.702750417347521</v>
+        <v>1.702750417347523</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0.09383746601854798</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.1348060082592623</v>
+        <v>0.1348060082592625</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.21255159766862</v>
+        <v>-2.242912600896236</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.789222871532958</v>
+        <v>-1.934667216630507</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.3346213139207043</v>
+        <v>-0.3507708412447875</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.1223829142955585</v>
+        <v>-0.1376228185068351</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.071205638035525</v>
+        <v>2.922230657588149</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.354199559913103</v>
+        <v>5.331596460943674</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.8188078149820547</v>
+        <v>0.7500647496209993</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.5358988352802029</v>
+        <v>0.5176662529063751</v>
       </c>
     </row>
     <row r="25">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.587565301070242</v>
+        <v>0.5457191596947363</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-1.451981470187681</v>
+        <v>-1.364784475752199</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.09440390862285347</v>
+        <v>0.08437714157793307</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4464281418142615</v>
+        <v>-0.4366880345887864</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.207815228481151</v>
+        <v>5.084497767774184</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.516100388085536</v>
+        <v>1.490403871812144</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.750631231875333</v>
+        <v>1.688884847325892</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.056021036595961</v>
+        <v>1.017527526028851</v>
       </c>
     </row>
     <row r="28">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.1649449451590694</v>
+        <v>-0.1918300808542791</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.5921675353206577</v>
+        <v>0.6067651867451287</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>-0.03102214318755712</v>
+        <v>-0.03926969904200549</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.06703261477596564</v>
+        <v>0.06984045692526956</v>
       </c>
     </row>
     <row r="30">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.104261287433074</v>
+        <v>1.923496995952959</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.268136054407182</v>
+        <v>3.292458642381537</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>0.5296284762389276</v>
+        <v>0.4675565394127648</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.4608550226798991</v>
+        <v>0.466163795152738</v>
       </c>
     </row>
     <row r="31">
